--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>CAMINHO DA PASTA</t>
   </si>
@@ -47,79 +47,16 @@
   </si>
   <si>
     <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10</t>
-  </si>
-  <si>
-    <t>PAE 0845468</t>
-  </si>
-  <si>
-    <t>PAE 0845451</t>
-  </si>
-  <si>
-    <t>PAE 0845250</t>
-  </si>
-  <si>
-    <t>PAE 0845457</t>
-  </si>
-  <si>
-    <t>PAE 0845255</t>
-  </si>
-  <si>
-    <t>PAE 0845588</t>
-  </si>
-  <si>
-    <t>PAE 0845489</t>
-  </si>
-  <si>
-    <t>PAE 0845464</t>
-  </si>
-  <si>
-    <t>PAE 0845494</t>
-  </si>
-  <si>
-    <t>PAE 0845440</t>
-  </si>
-  <si>
-    <t>PAE 0845437</t>
-  </si>
-  <si>
-    <t>PAE 0845462</t>
-  </si>
-  <si>
-    <t>PAE 0845548</t>
-  </si>
-  <si>
-    <t>PAE 0845449</t>
-  </si>
-  <si>
-    <t>PAE 0845594</t>
-  </si>
-  <si>
-    <t>PAE 0845563</t>
-  </si>
-  <si>
-    <t>PAE 0845485</t>
-  </si>
-  <si>
-    <t>PAE 0845487</t>
-  </si>
-  <si>
-    <t>PAE 0845240</t>
-  </si>
-  <si>
-    <t>PAE 0845593</t>
-  </si>
-  <si>
-    <t>PAE 0845599</t>
-  </si>
-  <si>
-    <t>PAE 0845447</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +66,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,8 +95,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -161,8 +106,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 7" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -464,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,116 +486,6 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>CAMINHO DA PASTA</t>
   </si>
@@ -28,32 +28,78 @@
     <t>Planilha1</t>
   </si>
   <si>
-    <t>c:/Users/Leonardo/Google Drive/Python/excel/Planilhas/</t>
+    <t>PLANILHA DE ORIGEM DE DADOS</t>
+  </si>
+  <si>
+    <t>PLANILHA DE DESTINO DE DADOS</t>
+  </si>
+  <si>
+    <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10</t>
+  </si>
+  <si>
+    <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
   </si>
   <si>
     <t>copia.xlsx</t>
   </si>
   <si>
-    <t>PLANILHA DE ORIGEM DE DADOS</t>
-  </si>
-  <si>
-    <t>PLANILHA DE DESTINO DE DADOS</t>
+    <t>lotericas_controle.xlsx</t>
   </si>
   <si>
     <t>COMPLETA</t>
   </si>
   <si>
-    <t>lotericas_controle.xlsx</t>
-  </si>
-  <si>
-    <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10</t>
+    <t>PAE 0836997</t>
+  </si>
+  <si>
+    <t>PAE 0836982</t>
+  </si>
+  <si>
+    <t>PAE 0838236</t>
+  </si>
+  <si>
+    <t>PAE 0838237</t>
+  </si>
+  <si>
+    <t>PAE 0839296</t>
+  </si>
+  <si>
+    <t>PAE 0836985</t>
+  </si>
+  <si>
+    <t>PAE 0839297</t>
+  </si>
+  <si>
+    <t>PAE 0838250</t>
+  </si>
+  <si>
+    <t>ID36039064_EGV@PROJETO LOTERICAS-FASE 3_PAE 0845631@OBRA DE REDE INTERNA_AV LIDO TAGLIARI 01161_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36039060_FXZ@PROJETO LOTERICAS-FASE 3_PAE 0845629@OBRA DE REDE INTERNA_AV LIDO ARMANDO OLTRAMARI 01000_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36039058_GAU@PROJETO LOTERICAS-FASE 3_PAE 0845627@OBRA DE REDE INTERNA_R JOAO AMANDIO SPERB 00159_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36039232_IBR@PROJETO LOTERICAS-FASE 3_PAE 0845734@OBRA DE REDE INTERNA_R GEN OSORIO 01290_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36039239_I-FASE 3_PAE 0845737@OBRA DE REDE INTERNA_AV JULIO DE CASTILHOS 00639_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36_IPF@PRJETO LOTERICAS-FASE 3_PAE 0845963@OBRA DE REDE INTERNA_ETR JULIO DE CASTILHOS 01130 IPE_CONTATO  EVERTON 5132335083</t>
+  </si>
+  <si>
+    <t>ID36039059_FXV@LOTERICAS-FASE 3_PLT_0845628@OBRA DE REDE INTERNA_R 25 DE ABRIL 00657_CONTATO  EVERTON 5132335083</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -78,15 +124,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,19 +146,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Moeda 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 7" xfId="1"/>
   </cellStyles>
@@ -410,22 +483,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="152.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -443,10 +516,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -454,7 +527,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -471,19 +544,94 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,132 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="config1" sheetId="1" r:id="rId1"/>
+    <sheet name="config1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>CAMINHO DA PASTA</t>
-  </si>
-  <si>
-    <t>NOME DA PLANILHA XLSX</t>
-  </si>
-  <si>
-    <t>ABA DA PLANILHA</t>
-  </si>
-  <si>
-    <t>Planilha1</t>
-  </si>
-  <si>
-    <t>PLANILHA DE ORIGEM DE DADOS</t>
-  </si>
-  <si>
-    <t>PLANILHA DE DESTINO DE DADOS</t>
-  </si>
-  <si>
-    <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10</t>
-  </si>
-  <si>
-    <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
-  </si>
-  <si>
-    <t>copia.xlsx</t>
-  </si>
-  <si>
-    <t>lotericas_controle.xlsx</t>
-  </si>
-  <si>
-    <t>COMPLETA</t>
-  </si>
-  <si>
-    <t>PAE 0836997</t>
-  </si>
-  <si>
-    <t>PAE 0836982</t>
-  </si>
-  <si>
-    <t>PAE 0838236</t>
-  </si>
-  <si>
-    <t>PAE 0838237</t>
-  </si>
-  <si>
-    <t>PAE 0839296</t>
-  </si>
-  <si>
-    <t>PAE 0836985</t>
-  </si>
-  <si>
-    <t>PAE 0839297</t>
-  </si>
-  <si>
-    <t>PAE 0838250</t>
-  </si>
-  <si>
-    <t>ID36039064_EGV@PROJETO LOTERICAS-FASE 3_PAE 0845631@OBRA DE REDE INTERNA_AV LIDO TAGLIARI 01161_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36039060_FXZ@PROJETO LOTERICAS-FASE 3_PAE 0845629@OBRA DE REDE INTERNA_AV LIDO ARMANDO OLTRAMARI 01000_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36039058_GAU@PROJETO LOTERICAS-FASE 3_PAE 0845627@OBRA DE REDE INTERNA_R JOAO AMANDIO SPERB 00159_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36039232_IBR@PROJETO LOTERICAS-FASE 3_PAE 0845734@OBRA DE REDE INTERNA_R GEN OSORIO 01290_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36039239_I-FASE 3_PAE 0845737@OBRA DE REDE INTERNA_AV JULIO DE CASTILHOS 00639_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36_IPF@PRJETO LOTERICAS-FASE 3_PAE 0845963@OBRA DE REDE INTERNA_ETR JULIO DE CASTILHOS 01130 IPE_CONTATO  EVERTON 5132335083</t>
-  </si>
-  <si>
-    <t>ID36039059_FXV@LOTERICAS-FASE 3_PLT_0845628@OBRA DE REDE INTERNA_R 25 DE ABRIL 00657_CONTATO  EVERTON 5132335083</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
+    <numFmt formatCode="[$-416]d\-mmm;@" numFmtId="164"/>
+    <numFmt formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" numFmtId="165"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -137,8 +54,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -161,38 +84,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 7" xfId="1"/>
     <cellStyle name="Moeda 2" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 7" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -482,160 +444,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="152.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="152.7109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="46.42578125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>24</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>PLANILHA DE ORIGEM DE DADOS</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr">
+        <is>
+          <t>CAMINHO DA PASTA</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>NOME DA PLANILHA XLSX</t>
+        </is>
+      </c>
+      <c r="C2" s="10" t="inlineStr">
+        <is>
+          <t>ABA DA PLANILHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>copia.xlsx</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Planilha1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="n"/>
+      <c r="C4" s="4" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>PLANILHA DE DESTINO DE DADOS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>CAMINHO DA PASTA</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <t>NOME DA PLANILHA XLSX</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>ABA DA PLANILHA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>lotericas_controle.xlsx</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>COMPLETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="n"/>
+      <c r="C8" s="4" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="inlineStr">
+        <is>
+          <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10 ///// PARA CONSULTA DE CIRCUITOS APAGUE A LISTA UL //// PARA CONSULTA UL APAGUE A LISTA DE CIRCUITOS</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t>LISTA DE UL PARA PESQUISA A PARTIR DA LINHA 10</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>PAE 0839270</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="4" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>PAE 0837001</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="4" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>PAE 0838723</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="n"/>
+      <c r="C12" s="4" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="C13" s="4" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="6" t="n"/>
+      <c r="C14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="6" t="n"/>
+      <c r="C15" s="4" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="6" t="n"/>
+      <c r="C16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="6" t="n"/>
+      <c r="C17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="6" t="n"/>
+      <c r="C18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="6" t="n"/>
+      <c r="C19" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="6" t="n"/>
+      <c r="C20" s="4" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="6" t="n"/>
+      <c r="C21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="6" t="n"/>
+      <c r="C22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="6" t="n"/>
+      <c r="C23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="6" t="n"/>
+      <c r="C24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="6" t="n"/>
+      <c r="C25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="6" t="n"/>
+      <c r="C26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="4" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="6" t="n"/>
+      <c r="C31" s="4" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="6" t="n"/>
+      <c r="C32" s="4" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="6" t="n"/>
+      <c r="C33" s="4" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="6" t="n"/>
+      <c r="C34" s="4" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="6" t="n"/>
+      <c r="C35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="6" t="n"/>
+      <c r="C36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="6" t="n"/>
+      <c r="C37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="6" t="n"/>
+      <c r="C38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="6" t="n"/>
+      <c r="C39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n"/>
+      <c r="B40" s="6" t="n"/>
+      <c r="C40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="6" t="n"/>
+      <c r="C41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="6" t="n"/>
+      <c r="C42" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/config/config.xlsx
+++ b/config/config.xlsx
@@ -1,49 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Google Drive\Python\excel\config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="config1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="config1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>PLANILHA DE ORIGEM DE DADOS</t>
+  </si>
+  <si>
+    <t>CAMINHO DA PASTA</t>
+  </si>
+  <si>
+    <t>NOME DA PLANILHA XLSX</t>
+  </si>
+  <si>
+    <t>ABA DA PLANILHA</t>
+  </si>
+  <si>
+    <t>C:\Users\Leonardo\Google Drive\Técnico Residente Caixa\Projeto Lotéricos\</t>
+  </si>
+  <si>
+    <t>Planilha1</t>
+  </si>
+  <si>
+    <t>PLANILHA DE DESTINO DE DADOS</t>
+  </si>
+  <si>
+    <t>C:\Users\Leonardo\Google Drive\Técnico Residente Caixa\Projeto Lotéricos\Modelos Acesso\</t>
+  </si>
+  <si>
+    <t>modelo_acesso_lotericas.xlsx</t>
+  </si>
+  <si>
+    <t>LOTERICAS</t>
+  </si>
+  <si>
+    <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10 ///// PARA CONSULTA DE CIRCUITOS APAGUE A LISTA UL //// PARA CONSULTA UL APAGUE A LISTA DE CIRCUITOS</t>
+  </si>
+  <si>
+    <t>LISTA DE UL PARA PESQUISA A PARTIR DA LINHA 10</t>
+  </si>
+  <si>
+    <t>Base_RS_GITECPO_Status_19_09_19(NOVA).xlsx</t>
+  </si>
+  <si>
+    <t>PAE 0845650</t>
+  </si>
+  <si>
+    <t>PAE 0845980</t>
+  </si>
+  <si>
+    <t>PAE 0846408</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt formatCode="[$-416]d\-mmm;@" numFmtId="164"/>
-    <numFmt formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" numFmtId="165"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-416]d\-mmm;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,7 +114,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,36 +183,45 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Moeda 2" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 7" xfId="1"/>
-    <cellStyle name="Moeda 2" xfId="2"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -444,312 +511,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" width="152.7109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="46.42578125"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17"/>
+    <col min="1" max="1" width="149.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>PLANILHA DE ORIGEM DE DADOS</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>CAMINHO DA PASTA</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>NOME DA PLANILHA XLSX</t>
-        </is>
-      </c>
-      <c r="C2" s="10" t="inlineStr">
-        <is>
-          <t>ABA DA PLANILHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>copia.xlsx</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Planilha1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>PLANILHA DE DESTINO DE DADOS</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>CAMINHO DA PASTA</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="inlineStr">
-        <is>
-          <t>NOME DA PLANILHA XLSX</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>ABA DA PLANILHA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>C:\Users\Leonardo\Google Drive\Python\excel\Planilhas\</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>lotericas_controle.xlsx</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>COMPLETA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>LISTA DE CIRCUITOS PARA COPIA A PARTIR DA LINHA 10 ///// PARA CONSULTA DE CIRCUITOS APAGUE A LISTA UL //// PARA CONSULTA UL APAGUE A LISTA DE CIRCUITOS</t>
-        </is>
-      </c>
-      <c r="B9" s="10" t="inlineStr">
-        <is>
-          <t>LISTA DE UL PARA PESQUISA A PARTIR DA LINHA 10</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>PAE 0839270</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>PAE 0837001</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>PAE 0838723</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="6" t="n"/>
-      <c r="C13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="6" t="n"/>
-      <c r="C14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="6" t="n"/>
-      <c r="C15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="6" t="n"/>
-      <c r="C16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="6" t="n"/>
-      <c r="C17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="6" t="n"/>
-      <c r="C18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="6" t="n"/>
-      <c r="C19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="6" t="n"/>
-      <c r="C21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="6" t="n"/>
-      <c r="C22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="6" t="n"/>
-      <c r="C23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="6" t="n"/>
-      <c r="C24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="6" t="n"/>
-      <c r="C25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="6" t="n"/>
-      <c r="C26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="4" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="6" t="n"/>
-      <c r="C31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="4" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="6" t="n"/>
-      <c r="C34" s="4" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="6" t="n"/>
-      <c r="C35" s="4" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="6" t="n"/>
-      <c r="C36" s="4" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="6" t="n"/>
-      <c r="C37" s="4" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="6" t="n"/>
-      <c r="C38" s="4" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="4" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="6" t="n"/>
-      <c r="C40" s="4" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="6" t="n"/>
-      <c r="C41" s="4" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="6" t="n"/>
-      <c r="C42" s="4" t="n"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="4"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>